--- a/swing-weighting-exercise.xlsx
+++ b/swing-weighting-exercise.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -342,6 +342,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -351,8 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,7 +436,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1) Rank each of the the rows</a:t>
+            <a:t>1) Rank each of the rows</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -620,7 +620,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2) Rank each of the the rows</a:t>
+            <a:t>2) Rank each of the rows</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -764,7 +764,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2) Rank each of the the rows</a:t>
+            <a:t>2) Rank each of the rows</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -923,7 +923,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>1) Rank each of the the rows</a:t>
+            <a:t>1) Rank each of the rows</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
@@ -1309,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,24 +1341,24 @@
       <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1382,7 +1382,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1650,7 +1650,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/swing-weighting-exercise.xlsx
+++ b/swing-weighting-exercise.xlsx
@@ -9,21 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
-    <sheet name="Recruitment" sheetId="5" r:id="rId2"/>
-    <sheet name="Abundance" sheetId="3" r:id="rId3"/>
-    <sheet name="Trend" sheetId="2" r:id="rId4"/>
-    <sheet name="Fundamental Objectives" sheetId="4" r:id="rId5"/>
+    <sheet name="Abundance" sheetId="3" r:id="rId2"/>
+    <sheet name="Trend" sheetId="2" r:id="rId3"/>
+    <sheet name="Fundamental Objectives" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
@@ -44,25 +43,6 @@
   </si>
   <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>Probablity to detect age-1 
-recruits given recruitment</t>
-  </si>
-  <si>
-    <t>Probability of having sufficient catch to estimate occupancy</t>
-  </si>
-  <si>
-    <t>Probability to detect recruitment that occurred is 0</t>
-  </si>
-  <si>
-    <t>Probability of having enough catch to run the analysis is 0</t>
-  </si>
-  <si>
-    <t>Probability to detect recruitment that occurred is 100</t>
-  </si>
-  <si>
-    <t>Probability of having enough catch to run the analysis is 100</t>
   </si>
   <si>
     <t>Monitoring program estimates no pallid sturgeon population model inputs</t>
@@ -376,165 +356,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="3061335"/>
-          <a:ext cx="5762625" cy="1339216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Instructions.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1) Rank each of the rows</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> with the baseline the worst rank. For rankings 1 is best and 2 is the worst.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2) Assign the scenario that you ranked 1 with a value of 100</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3) Assign a value, from 0 to 100, to the remaining scenarios (0 is worst and 100 is the best).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>** Values do not need to sum to 100 but do need to increase with ranking.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>** Do not change the shaded cells in the table above</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -674,7 +495,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -858,7 +679,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1352,7 +1173,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" s="23"/>
     </row>
@@ -1380,96 +1201,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" verticalDpi="599" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1488,16 +1222,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -1519,26 +1253,26 @@
     </row>
     <row r="3" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1551,7 +1285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1577,16 +1311,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,10 +1328,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -1608,26 +1342,26 @@
     </row>
     <row r="3" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1643,14 +1377,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1670,22 +1404,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -1693,16 +1427,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>
@@ -1713,76 +1447,76 @@
     </row>
     <row r="3" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>

--- a/swing-weighting-exercise.xlsx
+++ b/swing-weighting-exercise.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreynolds\Documents\GitHub\PSPAP-Reboot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreynolds\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="YrzGnFhQb/qcRlOjwzgT+AYKKYFxB0UMumcgGT7We+Xky52KyW+TLzgrgSUDb4G8V4h6262vHU8rDOZ1b988VA==" workbookSaltValue="fqxxylS7n2pFqhQss/d7Ng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
     <sheet name="Abundance" sheetId="3" r:id="rId2"/>
     <sheet name="Trend" sheetId="2" r:id="rId3"/>
-    <sheet name="Fundamental Objectives" sheetId="4" r:id="rId4"/>
+    <sheet name="Objective #2" sheetId="5" r:id="rId4"/>
+    <sheet name="Fundamental Objectives" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Name:</t>
   </si>
@@ -76,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Quantify PS recruitment to age-1 </t>
-  </si>
-  <si>
-    <t>Quantify PS population  trend (natural and hatchery origin)</t>
   </si>
   <si>
     <t>Provide relevant PS model inputs</t>
@@ -173,6 +172,30 @@
   </si>
   <si>
     <t>Trend estimate precision</t>
+  </si>
+  <si>
+    <t>Quantify PS population  trend &amp; abundance (natural &amp; hatchery origin)</t>
+  </si>
+  <si>
+    <t>Trend Estimate Utility</t>
+  </si>
+  <si>
+    <t>Abundance Estimates Utility</t>
+  </si>
+  <si>
+    <t>Trend estimate has the least utility of 0 (least/not useful; e.g., estimate has poor  precision and high bias)</t>
+  </si>
+  <si>
+    <t>Trend estimate has the least utility of 0 (least useful estimates; e.g., estimate has poor  precision and high bias)</t>
+  </si>
+  <si>
+    <t>Trend estimate is very useful (utility near 1; e.g., estimate has great precision and low bias)</t>
+  </si>
+  <si>
+    <t>Abundance estimates are very useful (utility near 1; e.g., estimates have great precision and low bias)</t>
+  </si>
+  <si>
+    <t>Abundance estimates have the least utility of 0 (least useful estimates; e.g., estimates have poor  precision and high bias)</t>
   </si>
 </sst>
 </file>
@@ -278,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,10 +310,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -321,9 +340,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -353,30 +382,74 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314402</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="285750"/>
+          <a:ext cx="6296102" cy="3752849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>866776</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38101" y="2762250"/>
-          <a:ext cx="7467600" cy="1314450"/>
+          <a:off x="38101" y="2762249"/>
+          <a:ext cx="6600824" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -416,9 +489,13 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>1) Watch the</a:t>
+            <a:t>Watch the</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
@@ -439,25 +516,85 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2) Rank each of the rows</a:t>
+            <a:t>Rank each of the rows (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>he baseline,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> worst case scenario, is already filled in for you with a rank of 3)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> with the baseline the worst rank. For rankings 1 is best and 3 is the worst.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>.  For   rankings 1 is best and 3 is the worst.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>3) Assign the scenario that you ranked 1 with a value of 100</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>Assign the scenario that you ranked 1 with a value of 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>4) Assign a value, from 0 to 100, to the remaining scenarios (0 is worst and 100 is the best).</a:t>
+            <a:t>Assign a value, from 0 to 100, to the remaining scenario (0 is worst and 100 is the best).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -471,7 +608,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>** Values do not need to sum to 100 but do need to increase with ranking.</a:t>
+            <a:t>** Values do not need to sum to 100.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -487,6 +624,234 @@
             <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="9525"/>
+          <a:ext cx="6267450" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>EXAMPLE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	Acutal Basin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Abundance:  25,000 natural and hatchery origin pallid sturgeon </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>Row 3:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Estimator is very precise but estimate that there are 50,000 fish.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>Row 4: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Estimator is not very precise but estimates there are 25,001 fish.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>514349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="3200399"/>
+          <a:ext cx="904875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>*</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -497,6 +862,212 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47604</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743701" y="3286125"/>
+          <a:ext cx="5038703" cy="2886074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="1707239"/>
+          <a:ext cx="5648325" cy="3064786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5572125" cy="1986826"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11725275" y="47626"/>
+          <a:ext cx="5572125" cy="1986826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Trend Precision:  Worst Case (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Blue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>), Really</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Good</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t> Case (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>) Scenarios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -505,22 +1076,22 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="4029075"/>
-          <a:ext cx="7505700" cy="1314450"/>
+          <a:ext cx="6581775" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -560,9 +1131,13 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>1) Watch the "Trend Example"</a:t>
+            <a:t>Watch the "Trend Example"</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
@@ -574,25 +1149,75 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Trend Example</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" u="sng">
+            <a:t>Trend Example                                      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(and see also 3 example plots from video at right)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" u="none">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2) Rank each of the rows</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> with the baseline the worst rank. For rankings 1 is best and 3 is the worst.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rank each of the rows (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>the baseline,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> worst case scenario, is already filled in for you with a rank of 3)</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
@@ -603,13 +1228,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3) Assign the scenario that you ranked 1 with a value of 100</a:t>
+            <a:t>. For  rankings 1 is best and 3 is the worst.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
@@ -620,15 +1249,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4) Assign a value, from 0 to 100, to the remaining scenarios (0 is worst and 100 is the best).</a:t>
+            <a:t>Assign the scenario that you ranked 1 with a value of 100</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -637,7 +1270,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>** Values do not need to sum to 100 but do need to increase with ranking.</a:t>
+            <a:t>Assign a value, from 0 to 100, to the remaining scenario (0 is worst and 100 is the best).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -654,23 +1287,352 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>** Do not change the shaded cells in the table above</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>** Values do not need to sum to 100.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>** Do not change the shaded cells in the table above.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523855</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="419100"/>
+          <a:ext cx="5038705" cy="2886074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638924" y="47624"/>
+          <a:ext cx="5086351" cy="790576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Examples:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none"/>
+            <a:t>	 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>                 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>	      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none"/>
+            <a:t>Trend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="none" baseline="0"/>
+            <a:t> Bias: Worst Case Scenario (after only 3 years)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="3419475"/>
+          <a:ext cx="4333875" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Trend  Bias</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>: Really Good Scenario (after 10 years)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="0"/>
+          <a:ext cx="5629275" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11791950" y="4733925"/>
+          <a:ext cx="5514975" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -680,6 +1642,334 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3009900"/>
+          <a:ext cx="7639050" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="95000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Instructions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rank each of the rows (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>the baseline,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> worst case scenario, is already filled in for you with a rank of 3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. For rankings 1 is best and 3 is the worst.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assign the scenario that you ranked 1 with a value of 100.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicParenR"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assign a value, from 0 to 100, to the remaining scenario (0 is worst and 100 is the best).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>** Values do not need to sum to 100.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>** Do not change the shaded cells in the table above</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -748,7 +2038,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t> with the baseline the worst rank. For rankings 1 is best and 5 is the worst.</a:t>
+            <a:t> with the baseline the worst rank. For rankings 1 is best and 5 is the worst. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -762,7 +2052,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2) Assign the scenario that you ranked 1 with a value of 100</a:t>
+            <a:t>2) Assign the scenario that you ranked 1 with a value of 100.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:effectLst/>
@@ -1131,57 +2421,58 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="17"/>
-    <col min="2" max="2" width="65.140625" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="8.85546875" style="15"/>
+    <col min="2" max="2" width="65.140625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="23"/>
+      <c r="A6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="24"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="cGTI2RyiuQmjtasKlXoT6ZAiBOzLH0lgRhY2Ag1DI5AGMoJGE8M0eaxjlef2MtdfRCTs5TweT1wLIQSodnPVJA==" saltValue="rPO2FrtAlKnBe2/D7sQWtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
@@ -1203,8 +2494,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,67 +2509,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="DjM2R5lORuRTkJ2kmW6V+iZrFN3uL161EEyUFq58PwB/FO+uX1mc03B7teHlixb5txtp68KFKVLxBbXaDwIskA==" saltValue="pPpUR1kSg6+Ly5aP6XOfWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" verticalDpi="599" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1293,7 +2585,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,70 +2599,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="7">
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="XBqanoizBB8GBAzI/l9dEnRdhrqK7MebniPcopKJKQ7gJqbPcs5X2I20fAPGNIXBlnCpNuWAHvjEHMN0x5iiPg==" saltValue="CyiLsWPw1fBDhaCRv8BxdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="0" orientation="landscape" verticalDpi="599" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1379,149 +2672,237 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="18"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="nNAChPuMAoh31ZpzkoGI5HA61TxwucG4sQUUNbaAok2tkWMzBeRZFW1BHs57kGcXWNAY/nkBgqF0Cw2QHGqxjw==" saltValue="qxBq8fjvB6J0z0X7y03azg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="YPK0otvCxu0otaSi0DRukvIzJ3cHYtSZUQb33emO1PLLfEeAPHxawtdzJWM0qwz5f9ViQHqRIli3979sVlHAxA==" saltValue="TKL6rIhcRe4hkJ0eCaTpsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6">
       <formula1>1</formula1>

--- a/swing-weighting-exercise.xlsx
+++ b/swing-weighting-exercise.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Name:</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Rank (1-3)</t>
-  </si>
-  <si>
-    <t>Rank (1-5)</t>
   </si>
   <si>
     <t xml:space="preserve">Quantify PS recruitment to age-1 </t>
@@ -196,6 +193,18 @@
   </si>
   <si>
     <t>Abundance estimates have the least utility of 0 (least useful estimates; e.g., estimates have poor  precision and high bias)</t>
+  </si>
+  <si>
+    <t>Minimize Cost</t>
+  </si>
+  <si>
+    <t>Monitoring  program is within allotted budget, but is the most expensive.</t>
+  </si>
+  <si>
+    <t>Monitoring  program is the least expensive and is within allotted budget.</t>
+  </si>
+  <si>
+    <t>Rank (1-6)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +370,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,19 +556,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>he baseline,</a:t>
+            <a:t>the baseline,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -1974,15 +1984,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78739</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1349376</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1387475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1991,8 +2001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25400" y="8524239"/>
-          <a:ext cx="9070976" cy="1715136"/>
+          <a:off x="0" y="8174988"/>
+          <a:ext cx="11912600" cy="1731011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2038,7 +2048,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t> with the baseline the worst rank. For rankings 1 is best and 5 is the worst. </a:t>
+            <a:t> with the baseline the worst rank. For rankings 1 is best and 6 is the worst. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2463,7 +2473,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="24"/>
     </row>
@@ -2513,10 +2523,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>15</v>
@@ -2530,10 +2540,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
@@ -2544,26 +2554,26 @@
     </row>
     <row r="3" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -2603,10 +2613,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>15</v>
@@ -2620,10 +2630,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
@@ -2634,26 +2644,26 @@
     </row>
     <row r="3" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -2691,10 +2701,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>15</v>
@@ -2708,10 +2718,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
@@ -2722,26 +2732,26 @@
     </row>
     <row r="3" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -2762,10 +2772,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,34 +2785,38 @@
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -2810,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -2818,22 +2832,25 @@
       <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
-        <v>5</v>
+      <c r="F2" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -2841,12 +2858,15 @@
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>12</v>
@@ -2860,18 +2880,21 @@
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -2879,18 +2902,21 @@
       <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -2898,13 +2924,38 @@
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YPK0otvCxu0otaSi0DRukvIzJ3cHYtSZUQb33emO1PLLfEeAPHxawtdzJWM0qwz5f9ViQHqRIli3979sVlHAxA==" saltValue="TKL6rIhcRe4hkJ0eCaTpsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6NBnJ549xPb2yJ1c25tG6y2PcQ1mc15EhajLRLMYeJeA4RXvlzoq1oVW6ff/T+kkWyWjVgFl/AxOiyqA+qhFRQ==" saltValue="OWBv6YKgfC6MHXnMcY+7zg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6">
       <formula1>1</formula1>
       <formula2>4</formula2>
     </dataValidation>
